--- a/data/cached_generated_reports/2024-2025/red_flag_7.xlsx
+++ b/data/cached_generated_reports/2024-2025/red_flag_7.xlsx
@@ -1171,12 +1171,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3114072400000X</t>
+          <t>3104365500000K</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CONNECT GLOBAL BUSINESS COMPANY Ltd</t>
+          <t>LU SUPPLY COMPANY  LTD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1186,27 +1186,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CONNECT GLOBAL BUSINESS COMPANY Ltd</t>
+          <t>LU SUPPLY COMPANY  LTD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KIGALI - NYARUGENGE</t>
+          <t>NYARUGENGE, NYARUGENGE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>KIGALI - NYARUGENGE</t>
+          <t>NYARUGENGE, NYARUGENGE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>KIGALI - NYARUGENGE</t>
+          <t>NYARUGENGE, NYARUGENGE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>POB:5564 Kigali</t>
+          <t>116 Kigali</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>niyafeos@yahoo.fr</t>
+          <t>lusupplycompany@yahoo.com</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>788757320</t>
+          <t>0788771482</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1197980004514176</t>
+          <t>1198170016810022</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>I&amp;M Bank</t>
+          <t>COGEBANQUE</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>106907027</t>
+          <t>102561356</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1251,12 +1251,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3104365500000K</t>
+          <t>3114072400000X</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LU SUPPLY COMPANY  LTD</t>
+          <t>CONNECT GLOBAL BUSINESS COMPANY Ltd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1266,27 +1266,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LU SUPPLY COMPANY  LTD</t>
+          <t>CONNECT GLOBAL BUSINESS COMPANY Ltd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NYARUGENGE, NYARUGENGE</t>
+          <t>KIGALI - NYARUGENGE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NYARUGENGE, NYARUGENGE</t>
+          <t>KIGALI - NYARUGENGE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NYARUGENGE, NYARUGENGE</t>
+          <t>KIGALI - NYARUGENGE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>116 Kigali</t>
+          <t>POB:5564 Kigali</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1296,17 +1296,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>lusupplycompany@yahoo.com</t>
+          <t>niyafeos@yahoo.fr</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0788771482</t>
+          <t>788757320</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1198170016810022</t>
+          <t>1197980004514176</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>COGEBANQUE</t>
+          <t>I&amp;M Bank</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>102561356</t>
+          <t>106907027</t>
         </is>
       </c>
       <c r="R11" t="n">
